--- a/biology/Zoologie/Coraebus_undatus/Coraebus_undatus.xlsx
+++ b/biology/Zoologie/Coraebus_undatus/Coraebus_undatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupreste du liège, Ver du liège
-Coraebus undatus, le Bupreste du liège ou Ver du liège[1], est une espèce d'insectes coléoptères de la famille des Buprestidae qui parasite, entre autres, les chênes.
+Coraebus undatus, le Bupreste du liège ou Ver du liège, est une espèce d'insectes coléoptères de la famille des Buprestidae qui parasite, entre autres, les chênes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce vit uniquement dans l'écozone paléarctique, en particulier en Andalousie[2] et dans le reste du bassin méditerranéen[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce vit uniquement dans l'écozone paléarctique, en particulier en Andalousie et dans le reste du bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un coléoptère de couleur sombre[3] mesurant de 10 à 16 mm[2]. L'espèce est un parasite des arbres des genres Quercus, Castanea, Diosperos et Fagus[4].
-Larve
-La larve peut creuser des tunnels de deux mètres de long[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un coléoptère de couleur sombre mesurant de 10 à 16 mm. L'espèce est un parasite des arbres des genres Quercus, Castanea, Diosperos et Fagus.
 </t>
         </is>
       </c>
@@ -573,15 +587,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Larve</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La larve peut creuser des tunnels de deux mètres de long. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coraebus_undatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coraebus_undatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Coraebus undatus (Fabricius, 1787)[6].
-L'espèce a été initialement classée dans le genre Buprestis sous le protonyme Buprestis undatus Fabricius, 1787[6].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bupreste du liège[7], Couleuvre[7], Ver du liège[7].
-Coraebus undatus a pour synonymes[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Coraebus undatus (Fabricius, 1787).
+L'espèce a été initialement classée dans le genre Buprestis sous le protonyme Buprestis undatus Fabricius, 1787.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bupreste du liège, Couleuvre, Ver du liège.
+Coraebus undatus a pour synonymes :
 Buprestis pruni Panzer, 1796
 Buprestis quadrifasciatus Rossi, 1790
 Buprestis undatus Fabricius, 1787
